--- a/data/MNTD_MPDcomparison.xlsx
+++ b/data/MNTD_MPDcomparison.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darwinsodhi/Documents/Ph.D/Wine_grape_Disease/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darwinsodhi/Documents/GitHub/Wine-Grape-Disease/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{404264CE-C539-BE4F-ACCD-FE2ED904F5B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98106B46-1ED8-3344-8AF6-7E5174B025F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36720" yWindow="2460" windowWidth="24640" windowHeight="13720" xr2:uid="{CAFAD5C9-7E1D-2B44-8C86-479F8787293A}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14720" xr2:uid="{CAFAD5C9-7E1D-2B44-8C86-479F8787293A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="54">
   <si>
     <t>mntd.obs.z</t>
   </si>
@@ -187,6 +187,12 @@
   </si>
   <si>
     <t>Xylophilus_ampelinus</t>
+  </si>
+  <si>
+    <t>All Species in Genus</t>
+  </si>
+  <si>
+    <t>Single Species in Genus</t>
   </si>
 </sst>
 </file>
@@ -228,10 +234,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -546,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60F199A2-52F6-D24A-B8EC-E27D38AC84E6}">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E1" sqref="E1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -559,141 +571,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="E1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>-2.4213028570927202</v>
-      </c>
-      <c r="C3">
-        <v>0.50141926699999995</v>
-      </c>
-      <c r="E3" s="1">
-        <v>-1.0345714304879601</v>
-      </c>
-      <c r="F3" s="1">
-        <v>-0.44650380200000001</v>
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>-4.4174794382377804</v>
+        <v>-2.4213028570927202</v>
       </c>
       <c r="C4">
-        <v>-4.6161362270000001</v>
+        <v>0.50141926699999995</v>
       </c>
       <c r="E4" s="1">
-        <v>-3.2393730869236101</v>
+        <v>-1.0345714304879601</v>
       </c>
       <c r="F4" s="1">
-        <v>-3.155994647</v>
+        <v>-0.44650380200000001</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>-3.2156266913968401</v>
+        <v>-4.4174794382377804</v>
       </c>
       <c r="C5">
-        <v>-3.1538481680000001</v>
+        <v>-4.6161362270000001</v>
       </c>
       <c r="E5" s="1">
-        <v>-3.2021123866431802</v>
+        <v>-3.2393730869236101</v>
       </c>
       <c r="F5" s="1">
-        <v>-3.2122297359999998</v>
+        <v>-3.155994647</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>-3.97337530484173</v>
+        <v>-3.2156266913968401</v>
       </c>
       <c r="C6">
-        <v>-7.5089502799999996</v>
+        <v>-3.1538481680000001</v>
       </c>
       <c r="E6" s="1">
-        <v>-2.84059032414984</v>
+        <v>-3.2021123866431802</v>
       </c>
       <c r="F6" s="1">
-        <v>-5.1607038279999999</v>
+        <v>-3.2122297359999998</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>-4.5109046903735299</v>
+        <v>-3.97337530484173</v>
       </c>
       <c r="C7">
-        <v>-10.19253647</v>
+        <v>-7.5089502799999996</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.464872097055614</v>
+        <v>-2.84059032414984</v>
       </c>
       <c r="F7" s="1">
-        <v>-0.46491381399999998</v>
+        <v>-5.1607038279999999</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>-4.4174794382377804</v>
+        <v>-4.5109046903735299</v>
       </c>
       <c r="C8">
-        <v>-4.6161362270000001</v>
+        <v>-10.19253647</v>
       </c>
       <c r="E8" s="1">
-        <v>-3.2393730869236101</v>
+        <v>-0.464872097055614</v>
       </c>
       <c r="F8" s="1">
-        <v>-3.155994647</v>
+        <v>-0.46491381399999998</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>-4.4174794382377804</v>
@@ -710,92 +715,92 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10">
-        <v>-3.2156266913968401</v>
+        <v>-4.4174794382377804</v>
       </c>
       <c r="C10">
-        <v>-3.1538481680000001</v>
+        <v>-4.6161362270000001</v>
       </c>
       <c r="E10" s="1">
-        <v>-3.2021123866431802</v>
+        <v>-3.2393730869236101</v>
       </c>
       <c r="F10" s="1">
-        <v>-3.2122297359999998</v>
+        <v>-3.155994647</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>-3.2156266913968401</v>
+      </c>
+      <c r="C11">
+        <v>-3.1538481680000001</v>
+      </c>
+      <c r="E11" s="1">
+        <v>-3.2021123866431802</v>
+      </c>
+      <c r="F11" s="1">
+        <v>-3.2122297359999998</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12">
-        <v>-3.21699151770021</v>
-      </c>
-      <c r="C12">
-        <v>-3.237547653</v>
-      </c>
-      <c r="E12" s="1">
-        <v>-3.2393730869236101</v>
-      </c>
-      <c r="F12" s="1">
-        <v>-3.155994647</v>
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13">
-        <v>-4.6787690430561897</v>
+        <v>-3.21699151770021</v>
       </c>
       <c r="C13">
-        <v>-7.5306146109999998</v>
+        <v>-3.237547653</v>
       </c>
       <c r="E13" s="1">
-        <v>-3.6325802466574699</v>
+        <v>-3.2393730869236101</v>
       </c>
       <c r="F13" s="1">
-        <v>-5.3909360389999996</v>
+        <v>-3.155994647</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14">
-        <v>-4.4174794382377804</v>
+        <v>-4.6787690430561897</v>
       </c>
       <c r="C14">
-        <v>-4.6161362270000001</v>
+        <v>-7.5306146109999998</v>
       </c>
       <c r="E14" s="1">
-        <v>-3.2393730869236101</v>
+        <v>-3.6325802466574699</v>
       </c>
       <c r="F14" s="1">
-        <v>-3.155994647</v>
+        <v>-5.3909360389999996</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <v>-4.4174794382377804</v>
@@ -812,24 +817,24 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16">
-        <v>-3.2156266913968401</v>
+        <v>-4.4174794382377804</v>
       </c>
       <c r="C16">
-        <v>-3.1538481680000001</v>
+        <v>-4.6161362270000001</v>
       </c>
       <c r="E16" s="1">
-        <v>-3.2021123866431802</v>
+        <v>-3.2393730869236101</v>
       </c>
       <c r="F16" s="1">
-        <v>-3.2122297359999998</v>
+        <v>-3.155994647</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>-3.2156266913968401</v>
@@ -846,228 +851,228 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18">
-        <v>9.8756980960312102E-2</v>
+        <v>-3.2156266913968401</v>
       </c>
       <c r="C18">
-        <v>1.945108667</v>
+        <v>-3.1538481680000001</v>
       </c>
       <c r="E18" s="1">
-        <v>0.428239035671659</v>
+        <v>-3.2021123866431802</v>
       </c>
       <c r="F18" s="1">
-        <v>1.769040535</v>
+        <v>-3.2122297359999998</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19">
-        <v>-0.47739884513366398</v>
+        <v>9.8756980960312102E-2</v>
       </c>
       <c r="C19">
-        <v>0.879647183</v>
+        <v>1.945108667</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.62404721761576398</v>
+        <v>0.428239035671659</v>
       </c>
       <c r="F19" s="1">
-        <v>0.346495047</v>
+        <v>1.769040535</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20">
-        <v>-1.34297241763186</v>
+        <v>-0.47739884513366398</v>
       </c>
       <c r="C20">
-        <v>0.53437023299999997</v>
+        <v>0.879647183</v>
       </c>
       <c r="E20" s="1">
-        <v>-1.2164693713888799</v>
+        <v>-0.62404721761576398</v>
       </c>
       <c r="F20" s="1">
-        <v>8.5720128000000007E-2</v>
+        <v>0.346495047</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21">
-        <v>-2.5995417783215702</v>
+        <v>-1.34297241763186</v>
       </c>
       <c r="C21">
-        <v>-4.0992553269999998</v>
+        <v>0.53437023299999997</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.60453567005308795</v>
+        <v>-1.2164693713888799</v>
       </c>
       <c r="F21" s="1">
-        <v>-2.6595349509999999</v>
+        <v>8.5720128000000007E-2</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22">
-        <v>-0.99554769757559003</v>
+        <v>-2.5995417783215702</v>
       </c>
       <c r="C22">
-        <v>-0.42512789899999998</v>
+        <v>-4.0992553269999998</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.29939753215014903</v>
+        <v>-0.60453567005308795</v>
       </c>
       <c r="F22" s="1">
-        <v>0.82293149899999996</v>
+        <v>-2.6595349509999999</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23">
-        <v>-0.76778804731814099</v>
+        <v>-0.99554769757559003</v>
       </c>
       <c r="C23">
-        <v>1.418949824</v>
+        <v>-0.42512789899999998</v>
       </c>
       <c r="E23" s="1">
-        <v>0.40265890496900197</v>
+        <v>-0.29939753215014903</v>
       </c>
       <c r="F23" s="1">
-        <v>-7.1306626999999997E-2</v>
+        <v>0.82293149899999996</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24">
-        <v>-5.91224675741549</v>
+        <v>-0.76778804731814099</v>
       </c>
       <c r="C24">
-        <v>-0.38238808699999999</v>
+        <v>1.418949824</v>
       </c>
       <c r="E24" s="1">
-        <v>-3.5355119515407498</v>
+        <v>0.40265890496900197</v>
       </c>
       <c r="F24" s="1">
-        <v>-0.24226895100000001</v>
+        <v>-7.1306626999999997E-2</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25">
-        <v>-3.2156266913968401</v>
+        <v>-5.91224675741549</v>
       </c>
       <c r="C25">
-        <v>-3.1538481680000001</v>
+        <v>-0.38238808699999999</v>
       </c>
       <c r="E25" s="1">
-        <v>-3.2021123866431802</v>
+        <v>-3.5355119515407498</v>
       </c>
       <c r="F25" s="1">
-        <v>-3.2122297359999998</v>
+        <v>-0.24226895100000001</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26">
-        <v>-4.4681148168283302</v>
+        <v>-3.2156266913968401</v>
       </c>
       <c r="C26">
-        <v>-3.2749905190000002</v>
+        <v>-3.1538481680000001</v>
       </c>
       <c r="E26" s="1">
-        <v>-2.1321694841707601</v>
+        <v>-3.2021123866431802</v>
       </c>
       <c r="F26" s="1">
-        <v>-1.7137128829999999</v>
+        <v>-3.2122297359999998</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27">
-        <v>-3.92493041181651</v>
+        <v>-4.4681148168283302</v>
       </c>
       <c r="C27">
-        <v>0.38884005100000002</v>
+        <v>-3.2749905190000002</v>
       </c>
       <c r="E27" s="1">
-        <v>-2.4386208959874001</v>
+        <v>-2.1321694841707601</v>
       </c>
       <c r="F27" s="1">
-        <v>0.25034452200000001</v>
+        <v>-1.7137128829999999</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28">
-        <v>-4.0587953239573196</v>
+        <v>-3.92493041181651</v>
       </c>
       <c r="C28">
-        <v>-5.2977942840000001</v>
+        <v>0.38884005100000002</v>
       </c>
       <c r="E28" s="1">
-        <v>-3.6546583901280401</v>
+        <v>-2.4386208959874001</v>
       </c>
       <c r="F28" s="1">
-        <v>-2.9292995359999998</v>
+        <v>0.25034452200000001</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29">
-        <v>-2.1965527147370998</v>
+        <v>-4.0587953239573196</v>
       </c>
       <c r="C29">
-        <v>-3.1061616299999999</v>
+        <v>-5.2977942840000001</v>
       </c>
       <c r="E29" s="1">
-        <v>-1.9273409333376199</v>
+        <v>-3.6546583901280401</v>
       </c>
       <c r="F29" s="1">
-        <v>-3.1833477719999999</v>
+        <v>-2.9292995359999998</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" t="s">
-        <v>1</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>-2.1965527147370998</v>
+      </c>
+      <c r="C30">
+        <v>-3.1061616299999999</v>
+      </c>
+      <c r="E30" s="1">
+        <v>-1.9273409333376199</v>
+      </c>
+      <c r="F30" s="1">
+        <v>-3.1833477719999999</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B31" t="s">
         <v>1</v>
@@ -1084,328 +1089,349 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32">
-        <v>-3.2156266913968401</v>
-      </c>
-      <c r="C32">
-        <v>-3.1538481680000001</v>
-      </c>
-      <c r="E32" s="1">
-        <v>-3.2021123866431802</v>
-      </c>
-      <c r="F32" s="1">
-        <v>-3.2122297359999998</v>
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B33">
-        <v>-1.1108303785754801</v>
+        <v>-3.2156266913968401</v>
       </c>
       <c r="C33">
-        <v>-2.0022601010000001</v>
+        <v>-3.1538481680000001</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.27671528365603298</v>
+        <v>-3.2021123866431802</v>
       </c>
       <c r="F33" s="1">
-        <v>-1.404794919</v>
+        <v>-3.2122297359999998</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B34">
-        <v>-4.4174794382377804</v>
+        <v>-1.1108303785754801</v>
       </c>
       <c r="C34">
-        <v>-4.6161362270000001</v>
+        <v>-2.0022601010000001</v>
       </c>
       <c r="E34" s="1">
-        <v>-4.5570117642050096</v>
+        <v>-0.27671528365603298</v>
       </c>
       <c r="F34" s="1">
-        <v>-4.5944606879999998</v>
+        <v>-1.404794919</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" t="s">
-        <v>1</v>
-      </c>
-      <c r="C35" t="s">
-        <v>1</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>1</v>
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <v>-4.4174794382377804</v>
+      </c>
+      <c r="C35">
+        <v>-4.6161362270000001</v>
+      </c>
+      <c r="E35" s="1">
+        <v>-4.5570117642050096</v>
+      </c>
+      <c r="F35" s="1">
+        <v>-4.5944606879999998</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36">
-        <v>-3.9338592837908202</v>
-      </c>
-      <c r="C36">
-        <v>-7.75683481</v>
-      </c>
-      <c r="E36" s="1">
-        <v>-1.5956864900301699</v>
-      </c>
-      <c r="F36" s="1">
-        <v>-0.57591808799999999</v>
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B37">
-        <v>-4.4174794382377804</v>
+        <v>-3.9338592837908202</v>
       </c>
       <c r="C37">
-        <v>-4.6161362270000001</v>
+        <v>-7.75683481</v>
       </c>
       <c r="E37" s="1">
-        <v>-4.5570117642050096</v>
+        <v>-1.5956864900301699</v>
       </c>
       <c r="F37" s="1">
-        <v>-4.5944606879999998</v>
+        <v>-0.57591808799999999</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B38">
-        <v>0.67812487920377695</v>
+        <v>-4.4174794382377804</v>
       </c>
       <c r="C38">
-        <v>1.537955237</v>
+        <v>-4.6161362270000001</v>
       </c>
       <c r="E38" s="1">
-        <v>0.40191926899253899</v>
+        <v>-4.5570117642050096</v>
       </c>
       <c r="F38" s="1">
-        <v>1.4494308140000001</v>
+        <v>-4.5944606879999998</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B39">
-        <v>9.7329313916148505E-2</v>
+        <v>0.67812487920377695</v>
       </c>
       <c r="C39">
-        <v>-1.2597453139999999</v>
+        <v>1.537955237</v>
       </c>
       <c r="E39" s="1">
-        <v>-0.33610903623300098</v>
+        <v>0.40191926899253899</v>
       </c>
       <c r="F39" s="1">
-        <v>-1.6755478070000001</v>
+        <v>1.4494308140000001</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B40">
-        <v>-2.5822905786497299</v>
+        <v>9.7329313916148505E-2</v>
       </c>
       <c r="C40">
-        <v>-1.887080519</v>
+        <v>-1.2597453139999999</v>
       </c>
       <c r="E40" s="1">
-        <v>-2.7833679179143802</v>
+        <v>-0.33610903623300098</v>
       </c>
       <c r="F40" s="1">
-        <v>-1.959840574</v>
+        <v>-1.6755478070000001</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B41">
-        <v>-3.21699151770021</v>
+        <v>-2.5822905786497299</v>
       </c>
       <c r="C41">
-        <v>-3.237547653</v>
+        <v>-1.887080519</v>
       </c>
       <c r="E41" s="1">
-        <v>-3.2393730869236101</v>
+        <v>-2.7833679179143802</v>
       </c>
       <c r="F41" s="1">
-        <v>-3.155994647</v>
+        <v>-1.959840574</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B42">
-        <v>-4.4675727133018697</v>
+        <v>-3.21699151770021</v>
       </c>
       <c r="C42">
-        <v>-6.5833044879999996</v>
+        <v>-3.237547653</v>
       </c>
       <c r="E42" s="1">
-        <v>-2.2178952047648099</v>
+        <v>-3.2393730869236101</v>
       </c>
       <c r="F42" s="1">
-        <v>-1.686801861</v>
+        <v>-3.155994647</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B43">
-        <v>-1.5482795686261199</v>
+        <v>-4.4675727133018697</v>
       </c>
       <c r="C43">
-        <v>-1.8773041079999999</v>
+        <v>-6.5833044879999996</v>
       </c>
       <c r="E43" s="1">
-        <v>-1.73184808804753</v>
+        <v>-2.2178952047648099</v>
       </c>
       <c r="F43" s="1">
-        <v>-2.1318452880000001</v>
+        <v>-1.686801861</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B44">
-        <v>-0.43151636463300902</v>
+        <v>-1.5482795686261199</v>
       </c>
       <c r="C44">
-        <v>-0.434740301</v>
+        <v>-1.8773041079999999</v>
       </c>
       <c r="E44" s="1">
-        <v>-0.460822280332287</v>
+        <v>-1.73184808804753</v>
       </c>
       <c r="F44" s="1">
-        <v>-0.47608892200000003</v>
+        <v>-2.1318452880000001</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B45">
-        <v>-5.2479943474299802</v>
+        <v>-0.43151636463300902</v>
       </c>
       <c r="C45">
-        <v>-2.0637102430000001</v>
+        <v>-0.434740301</v>
       </c>
       <c r="E45" s="1">
-        <v>-1.9377833765682499</v>
+        <v>-0.460822280332287</v>
       </c>
       <c r="F45" s="1">
-        <v>-6.3614575000000007E-2</v>
+        <v>-0.47608892200000003</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46">
-        <v>-2.7113564673945998</v>
+        <v>-5.2479943474299802</v>
       </c>
       <c r="C46">
-        <v>-6.4761477699999999</v>
+        <v>-2.0637102430000001</v>
       </c>
       <c r="E46" s="1">
-        <v>-1.6498048316406899</v>
+        <v>-1.9377833765682499</v>
       </c>
       <c r="F46" s="1">
-        <v>-2.2976302469999998</v>
+        <v>-6.3614575000000007E-2</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B47">
-        <v>-4.8645794234972204</v>
+        <v>-2.7113564673945998</v>
       </c>
       <c r="C47">
-        <v>-3.2433771220000001</v>
+        <v>-6.4761477699999999</v>
       </c>
       <c r="E47" s="1">
-        <v>-1.36445458523203</v>
+        <v>-1.6498048316406899</v>
       </c>
       <c r="F47" s="1">
-        <v>-0.73759937099999995</v>
+        <v>-2.2976302469999998</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B48">
-        <v>-3.7253601625818402</v>
+        <v>-4.8645794234972204</v>
       </c>
       <c r="C48">
-        <v>-5.5881946310000004</v>
+        <v>-3.2433771220000001</v>
       </c>
       <c r="E48" s="1">
-        <v>-3.0313261500232498</v>
+        <v>-1.36445458523203</v>
       </c>
       <c r="F48" s="1">
-        <v>-4.1513948789999997</v>
+        <v>-0.73759937099999995</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B49">
-        <v>-4.1691762155115004</v>
+        <v>-3.7253601625818402</v>
       </c>
       <c r="C49">
-        <v>-4.7009680789999999</v>
+        <v>-5.5881946310000004</v>
       </c>
       <c r="E49" s="1">
-        <v>-4.4239276584264404</v>
+        <v>-3.0313261500232498</v>
       </c>
       <c r="F49" s="1">
-        <v>-4.8303968429999999</v>
+        <v>-4.1513948789999997</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50">
+        <v>-4.1691762155115004</v>
+      </c>
+      <c r="C50">
+        <v>-4.7009680789999999</v>
+      </c>
+      <c r="E50" s="1">
+        <v>-4.4239276584264404</v>
+      </c>
+      <c r="F50" s="1">
+        <v>-4.8303968429999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>51</v>
       </c>
-      <c r="B50" t="s">
-        <v>1</v>
-      </c>
-      <c r="C50" t="s">
-        <v>1</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F50" s="1" t="s">
+      <c r="B51" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F51" s="1" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:F1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>